--- a/Coronavirus COVID-19 - VIC Public exposure sites.xlsx
+++ b/Coronavirus COVID-19 - VIC Public exposure sites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mike Honey\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B04C467-14BC-4CDC-B013-52DEDCA5A290}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D607F99C-906E-40B8-A5FA-EA29DEE7D18E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C1F6E7A0-A7A4-47D5-AD7F-F3EBAD16E3EC}"/>
   </bookViews>
@@ -378,59 +378,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -674,6 +621,59 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -688,18 +688,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF0AD162-445E-46F7-85C5-4B75D46AC720}" name="Table1" displayName="Table1" ref="A1:I44" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF0AD162-445E-46F7-85C5-4B75D46AC720}" name="VIC_public_exposure_sites" displayName="VIC_public_exposure_sites" ref="A1:I44" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A1:I44" xr:uid="{E956DEE3-32AF-422C-8945-A806F07C6AC2}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{5A7CEFDC-6EA3-4DEE-B5C8-AB790FDA1FCC}" name="Date" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{BA3AF1B8-FB76-4C40-9B40-C1E23BD6D880}" name="Time" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00BBE98B-CFE5-4E6E-BEE1-82771B152607}" name="Location" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{2CC131BD-98E1-4A40-87C0-41E319F81D64}" name="Onset of symptoms up to" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{23761236-70D9-4987-859C-768C8269BF16}" name="Onset End Date" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{BCBA3A15-1C23-4B92-A8CC-E716035D4373}" name="Latitude" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{6B289C17-6F7F-48A4-B992-C86D180F888E}" name="Longitude" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{DE78F3D9-079C-462E-820F-C45FF7810726}" name="Exposure Date" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{78D0D3E4-FEAB-438E-93D1-655FC72C65B7}" name="Exposure Start Date" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{5A7CEFDC-6EA3-4DEE-B5C8-AB790FDA1FCC}" name="Date" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{BA3AF1B8-FB76-4C40-9B40-C1E23BD6D880}" name="Time" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{00BBE98B-CFE5-4E6E-BEE1-82771B152607}" name="Location" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{2CC131BD-98E1-4A40-87C0-41E319F81D64}" name="Onset of symptoms up to" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{23761236-70D9-4987-859C-768C8269BF16}" name="Onset End Date" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{BCBA3A15-1C23-4B92-A8CC-E716035D4373}" name="Latitude" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{6B289C17-6F7F-48A4-B992-C86D180F888E}" name="Longitude" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{DE78F3D9-079C-462E-820F-C45FF7810726}" name="Exposure Date" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{78D0D3E4-FEAB-438E-93D1-655FC72C65B7}" name="Exposure Start Date" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1004,9 +1004,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5400F71B-E440-4BF4-8B9B-D008C4544C4B}">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1061,11 +1059,11 @@
         <v>94</v>
       </c>
       <c r="D2" s="2">
-        <f>Table1[[#This Row],[Date]]+14</f>
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
         <v>43921</v>
       </c>
       <c r="E2" s="2">
-        <f>Table1[[#This Row],[Onset of symptoms up to]]</f>
+        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
         <v>43921</v>
       </c>
       <c r="F2" s="1">
@@ -1075,11 +1073,11 @@
         <v>145.009818</v>
       </c>
       <c r="H2" s="2">
-        <f>Table1[[#This Row],[Date]]</f>
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
         <v>43907</v>
       </c>
       <c r="I2" s="2">
-        <f>Table1[[#This Row],[Exposure Date]]</f>
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
         <v>43907</v>
       </c>
     </row>
@@ -1094,11 +1092,11 @@
         <v>93</v>
       </c>
       <c r="D3" s="2">
-        <f>Table1[[#This Row],[Date]]+14</f>
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
         <v>43919</v>
       </c>
       <c r="E3" s="2">
-        <f>Table1[[#This Row],[Onset of symptoms up to]]</f>
+        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
         <v>43919</v>
       </c>
       <c r="F3" s="1">
@@ -1108,11 +1106,11 @@
         <v>145.048047</v>
       </c>
       <c r="H3" s="2">
-        <f>Table1[[#This Row],[Date]]</f>
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
         <v>43905</v>
       </c>
       <c r="I3" s="2">
-        <f>Table1[[#This Row],[Exposure Date]]</f>
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
         <v>43905</v>
       </c>
     </row>

--- a/Coronavirus COVID-19 - VIC Public exposure sites.xlsx
+++ b/Coronavirus COVID-19 - VIC Public exposure sites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mike Honey\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D607F99C-906E-40B8-A5FA-EA29DEE7D18E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396F76BC-214C-4747-A220-117E3D8ECA17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C1F6E7A0-A7A4-47D5-AD7F-F3EBAD16E3EC}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="115">
   <si>
     <t>Date</t>
   </si>
@@ -321,6 +321,66 @@
   </si>
   <si>
     <t>Toorak Primary School</t>
+  </si>
+  <si>
+    <t>Location for Geocoding</t>
+  </si>
+  <si>
+    <t>Mary Miller Café, Fitzroy North, VIC, AU&amp;countrycode=AU</t>
+  </si>
+  <si>
+    <t>No. 19 Café, Ascot Vale, VIC, AU&amp;countrycode=AU</t>
+  </si>
+  <si>
+    <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+  </si>
+  <si>
+    <t>T20 Cricket World Cup Final, Melbourne Cricket Ground, MCC Members Level 2, VIC, AU&amp;countrycode=AU</t>
+  </si>
+  <si>
+    <t>Myrtle Oval, Macleay Park, North Balwyn, VIC, AU&amp;countrycode=AU</t>
+  </si>
+  <si>
+    <t>Ramsden Street Oval, Clifton Hill, VIC, AU&amp;countrycode=AU</t>
+  </si>
+  <si>
+    <t>AAMI Park, VIC, AU&amp;countrycode=AU</t>
+  </si>
+  <si>
+    <t>Albert Park Hotel, VIC, AU&amp;countrycode=AU</t>
+  </si>
+  <si>
+    <t>South Melbourne Market, VIC, AU&amp;countrycode=AU</t>
+  </si>
+  <si>
+    <t>Coles Waurn Ponds, VIC, AU&amp;countrycode=AU</t>
+  </si>
+  <si>
+    <t>Ashburton Park, VIC, AU&amp;countrycode=AU</t>
+  </si>
+  <si>
+    <t>Pho Hung Vuong 2 Vietnamese Restaurant in Richmond, VIC, AU&amp;countrycode=AU</t>
+  </si>
+  <si>
+    <t>Cinema Nova, Carlton, VIC, AU&amp;countrycode=AU</t>
+  </si>
+  <si>
+    <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+  </si>
+  <si>
+    <t>Geelong Train Station, Geelong, VIC, AU&amp;countrycode=AU</t>
+  </si>
+  <si>
+    <t>Wine by Sam - Seymour, VIC, AU&amp;countrycode=AU</t>
+  </si>
+  <si>
+    <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
+  </si>
+  <si>
+    <t>Camberwell Train Station, Camberwell, VIC, AU&amp;countrycode=AU</t>
+  </si>
+  <si>
+    <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
   </si>
 </sst>
 </file>
@@ -377,7 +437,34 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -688,18 +775,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF0AD162-445E-46F7-85C5-4B75D46AC720}" name="VIC_public_exposure_sites" displayName="VIC_public_exposure_sites" ref="A1:I44" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A1:I44" xr:uid="{E956DEE3-32AF-422C-8945-A806F07C6AC2}"/>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{5A7CEFDC-6EA3-4DEE-B5C8-AB790FDA1FCC}" name="Date" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{BA3AF1B8-FB76-4C40-9B40-C1E23BD6D880}" name="Time" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{00BBE98B-CFE5-4E6E-BEE1-82771B152607}" name="Location" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{2CC131BD-98E1-4A40-87C0-41E319F81D64}" name="Onset of symptoms up to" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{23761236-70D9-4987-859C-768C8269BF16}" name="Onset End Date" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{BCBA3A15-1C23-4B92-A8CC-E716035D4373}" name="Latitude" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{6B289C17-6F7F-48A4-B992-C86D180F888E}" name="Longitude" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{DE78F3D9-079C-462E-820F-C45FF7810726}" name="Exposure Date" dataDxfId="1"/>
-    <tableColumn id="12" xr3:uid="{78D0D3E4-FEAB-438E-93D1-655FC72C65B7}" name="Exposure Start Date" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF0AD162-445E-46F7-85C5-4B75D46AC720}" name="VIC_public_exposure_sites" displayName="VIC_public_exposure_sites" ref="A1:J44" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J44" xr:uid="{E956DEE3-32AF-422C-8945-A806F07C6AC2}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{5A7CEFDC-6EA3-4DEE-B5C8-AB790FDA1FCC}" name="Date" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{BA3AF1B8-FB76-4C40-9B40-C1E23BD6D880}" name="Time" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00BBE98B-CFE5-4E6E-BEE1-82771B152607}" name="Location" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{2CC131BD-98E1-4A40-87C0-41E319F81D64}" name="Onset of symptoms up to" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{23761236-70D9-4987-859C-768C8269BF16}" name="Onset End Date" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{8622C8B5-3655-444D-B8EB-E8B75B0C5F18}" name="Location for Geocoding" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{BCBA3A15-1C23-4B92-A8CC-E716035D4373}" name="Latitude" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{6B289C17-6F7F-48A4-B992-C86D180F888E}" name="Longitude" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{DE78F3D9-079C-462E-820F-C45FF7810726}" name="Exposure Date" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{78D0D3E4-FEAB-438E-93D1-655FC72C65B7}" name="Exposure Start Date" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1002,9 +1090,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5400F71B-E440-4BF4-8B9B-D008C4544C4B}">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1013,13 +1103,14 @@
     <col min="3" max="3" width="22.28515625" customWidth="1"/>
     <col min="4" max="4" width="25.28515625" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" customWidth="1"/>
+    <col min="6" max="6" width="96.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1036,19 +1127,22 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43907</v>
       </c>
@@ -1066,22 +1160,26 @@
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
         <v>43921</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="1" t="str">
+        <f>VIC_public_exposure_sites[[#This Row],[Location]] &amp; ", VIC, AU"</f>
+        <v>Toorak Primary School, VIC, AU</v>
+      </c>
+      <c r="G2" s="1">
         <v>-37.844318000000001</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>145.009818</v>
       </c>
-      <c r="H2" s="2">
+      <c r="I2" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
         <v>43907</v>
       </c>
-      <c r="I2" s="2">
+      <c r="J2" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
         <v>43907</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>43905</v>
       </c>
@@ -1099,22 +1197,26 @@
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
         <v>43919</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="1" t="str">
+        <f>VIC_public_exposure_sites[[#This Row],[Location]] &amp; ", VIC, AU"</f>
+        <v>Carey Grammar, VIC, AU</v>
+      </c>
+      <c r="G3" s="1">
         <v>-37.813239000000003</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>145.048047</v>
       </c>
-      <c r="H3" s="2">
+      <c r="I3" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
         <v>43905</v>
       </c>
-      <c r="I3" s="2">
+      <c r="J3" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
         <v>43905</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1130,20 +1232,23 @@
       <c r="E4" s="2">
         <v>43914</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4" s="1">
         <v>-37.776940699999997</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>144.98702499999999</v>
-      </c>
-      <c r="H4" s="2">
-        <v>43900</v>
       </c>
       <c r="I4" s="2">
         <v>43900</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="2">
+        <v>43900</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1159,20 +1264,23 @@
       <c r="E5" s="2">
         <v>43914</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="1">
         <v>-37.772095999999998</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>144.91609500000001</v>
-      </c>
-      <c r="H5" s="2">
-        <v>43900</v>
       </c>
       <c r="I5" s="2">
         <v>43900</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="2">
+        <v>43900</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1188,20 +1296,23 @@
       <c r="E6" s="2">
         <v>43914</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G6" s="1">
         <v>-37.667110999999998</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>144.83348079999999</v>
-      </c>
-      <c r="H6" s="2">
-        <v>43900</v>
       </c>
       <c r="I6" s="2">
         <v>43900</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="2">
+        <v>43900</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -1217,20 +1328,23 @@
       <c r="E7" s="2">
         <v>43913</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" s="1">
         <v>-37.667110999999998</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>144.83348079999999</v>
-      </c>
-      <c r="H7" s="2">
-        <v>43899</v>
       </c>
       <c r="I7" s="2">
         <v>43899</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="2">
+        <v>43899</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -1246,20 +1360,23 @@
       <c r="E8" s="2">
         <v>43913</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" s="1">
         <v>-37.667110999999998</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>144.83348079999999</v>
-      </c>
-      <c r="H8" s="2">
-        <v>43899</v>
       </c>
       <c r="I8" s="2">
         <v>43899</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="2">
+        <v>43899</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -1275,20 +1392,23 @@
       <c r="E9" s="2">
         <v>43912</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" s="1">
         <v>-37.667110999999998</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>144.83348079999999</v>
-      </c>
-      <c r="H9" s="2">
-        <v>43898</v>
       </c>
       <c r="I9" s="2">
         <v>43898</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="2">
+        <v>43898</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -1304,20 +1424,23 @@
       <c r="E10" s="2">
         <v>43911</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" s="1">
         <v>-37.667110999999998</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <v>144.83348079999999</v>
-      </c>
-      <c r="H10" s="2">
-        <v>43897</v>
       </c>
       <c r="I10" s="2">
         <v>43897</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" s="2">
+        <v>43897</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
@@ -1333,20 +1456,23 @@
       <c r="E11" s="2">
         <v>43910</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G11" s="1">
         <v>-37.667110999999998</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <v>144.83348079999999</v>
-      </c>
-      <c r="H11" s="2">
-        <v>43896</v>
       </c>
       <c r="I11" s="2">
         <v>43896</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" s="2">
+        <v>43896</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
@@ -1362,20 +1488,23 @@
       <c r="E12" s="2">
         <v>43910</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G12" s="1">
         <v>-37.667110999999998</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="1">
         <v>144.83348079999999</v>
-      </c>
-      <c r="H12" s="2">
-        <v>43896</v>
       </c>
       <c r="I12" s="2">
         <v>43896</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" s="2">
+        <v>43896</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -1391,20 +1520,23 @@
       <c r="E13" s="2">
         <v>43912</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G13" s="1">
         <v>-37.821452700000002</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
         <v>144.98347200000001</v>
-      </c>
-      <c r="H13" s="2">
-        <v>43898</v>
       </c>
       <c r="I13" s="2">
         <v>43898</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" s="2">
+        <v>43898</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -1420,20 +1552,23 @@
       <c r="E14" s="2">
         <v>43912</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G14" s="1">
         <v>-37.800963000000003</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H14" s="1">
         <v>145.0729384</v>
-      </c>
-      <c r="H14" s="2">
-        <v>43898</v>
       </c>
       <c r="I14" s="2">
         <v>43898</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" s="2">
+        <v>43898</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -1449,20 +1584,23 @@
       <c r="E15" s="2">
         <v>43912</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G15" s="1">
         <v>-37.790782999999998</v>
       </c>
-      <c r="G15" s="1">
+      <c r="H15" s="1">
         <v>144.99816200000001</v>
-      </c>
-      <c r="H15" s="2">
-        <v>43898</v>
       </c>
       <c r="I15" s="2">
         <v>43898</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" s="2">
+        <v>43898</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
@@ -1478,20 +1616,23 @@
       <c r="E16" s="2">
         <v>43911</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16" s="1">
         <v>-37.824981299999997</v>
       </c>
-      <c r="G16" s="1">
+      <c r="H16" s="1">
         <v>144.98361299999999</v>
-      </c>
-      <c r="H16" s="2">
-        <v>43897</v>
       </c>
       <c r="I16" s="2">
         <v>43897</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="2">
+        <v>43897</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
@@ -1507,20 +1648,23 @@
       <c r="E17" s="2">
         <v>43911</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G17" s="1">
         <v>-37.841103699999998</v>
       </c>
-      <c r="G17" s="1">
+      <c r="H17" s="1">
         <v>144.955806</v>
-      </c>
-      <c r="H17" s="2">
-        <v>43897</v>
       </c>
       <c r="I17" s="2">
         <v>43897</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="2">
+        <v>43897</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
@@ -1536,20 +1680,23 @@
       <c r="E18" s="2">
         <v>43911</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G18" s="1">
         <v>-37.832173099999999</v>
       </c>
-      <c r="G18" s="1">
+      <c r="H18" s="1">
         <v>144.9564881</v>
-      </c>
-      <c r="H18" s="2">
-        <v>43897</v>
       </c>
       <c r="I18" s="2">
         <v>43897</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="2">
+        <v>43897</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
@@ -1565,20 +1712,23 @@
       <c r="E19" s="2">
         <v>43910</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="1">
         <v>-37.832173099999999</v>
       </c>
-      <c r="G19" s="1">
+      <c r="H19" s="1">
         <v>144.9564881</v>
-      </c>
-      <c r="H19" s="2">
-        <v>43896</v>
       </c>
       <c r="I19" s="2">
         <v>43896</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="2">
+        <v>43896</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>27</v>
       </c>
@@ -1594,20 +1744,23 @@
       <c r="E20" s="2">
         <v>43911</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G20" s="1">
         <v>-38.199002999999998</v>
       </c>
-      <c r="G20" s="1">
+      <c r="H20" s="1">
         <v>144.31841800000001</v>
-      </c>
-      <c r="H20" s="2">
-        <v>43897</v>
       </c>
       <c r="I20" s="2">
         <v>43897</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="2">
+        <v>43897</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
@@ -1623,20 +1776,23 @@
       <c r="E21" s="2">
         <v>43910</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G21" s="1">
         <v>-38.199002999999998</v>
       </c>
-      <c r="G21" s="1">
+      <c r="H21" s="1">
         <v>144.31841800000001</v>
-      </c>
-      <c r="H21" s="2">
-        <v>43896</v>
       </c>
       <c r="I21" s="2">
         <v>43896</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="2">
+        <v>43896</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -1652,20 +1808,23 @@
       <c r="E22" s="2">
         <v>43911</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G22" s="1">
         <v>-37.863344400000003</v>
       </c>
-      <c r="G22" s="1">
+      <c r="H22" s="1">
         <v>145.08682759999999</v>
-      </c>
-      <c r="H22" s="2">
-        <v>43897</v>
       </c>
       <c r="I22" s="2">
         <v>43897</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="2">
+        <v>43897</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,20 +1840,23 @@
       <c r="E23" s="2">
         <v>43910</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G23" s="1">
         <v>-37.809265000000003</v>
       </c>
-      <c r="G23" s="1">
+      <c r="H23" s="1">
         <v>144.99495099999999</v>
-      </c>
-      <c r="H23" s="2">
-        <v>43896</v>
       </c>
       <c r="I23" s="2">
         <v>43896</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23" s="2">
+        <v>43896</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
@@ -1710,20 +1872,23 @@
       <c r="E24" s="2">
         <v>43910</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G24" s="1">
         <v>-37.667110999999998</v>
       </c>
-      <c r="G24" s="1">
+      <c r="H24" s="1">
         <v>144.83348079999999</v>
-      </c>
-      <c r="H24" s="2">
-        <v>43896</v>
       </c>
       <c r="I24" s="2">
         <v>43896</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="2">
+        <v>43896</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>57</v>
       </c>
@@ -1739,20 +1904,23 @@
       <c r="E25" s="2">
         <v>43909</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G25" s="1">
         <v>-37.797809200000003</v>
       </c>
-      <c r="G25" s="1">
+      <c r="H25" s="1">
         <v>144.96801239999999</v>
-      </c>
-      <c r="H25" s="2">
-        <v>43895</v>
       </c>
       <c r="I25" s="2">
         <v>43895</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="2">
+        <v>43895</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>57</v>
       </c>
@@ -1768,20 +1936,23 @@
       <c r="E26" s="2">
         <v>43909</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G26" s="1">
         <v>-37.816394899999999</v>
       </c>
-      <c r="G26" s="1">
+      <c r="H26" s="1">
         <v>144.9526066</v>
-      </c>
-      <c r="H26" s="2">
-        <v>43895</v>
       </c>
       <c r="I26" s="2">
         <v>43895</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" s="2">
+        <v>43895</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>57</v>
       </c>
@@ -1797,20 +1968,23 @@
       <c r="E27" s="2">
         <v>43909</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G27" s="1">
         <v>-38.145009600000002</v>
       </c>
-      <c r="G27" s="1">
+      <c r="H27" s="1">
         <v>144.35683760000001</v>
-      </c>
-      <c r="H27" s="2">
-        <v>43895</v>
       </c>
       <c r="I27" s="2">
         <v>43895</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="2">
+        <v>43895</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>63</v>
       </c>
@@ -1826,20 +2000,23 @@
       <c r="E28" s="2">
         <v>43907</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G28" s="1">
         <v>-37.028215000000003</v>
       </c>
-      <c r="G28" s="1">
+      <c r="H28" s="1">
         <v>145.14336</v>
-      </c>
-      <c r="H28" s="2">
-        <v>43893</v>
       </c>
       <c r="I28" s="2">
         <v>43893</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28" s="2">
+        <v>43893</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>67</v>
       </c>
@@ -1855,20 +2032,23 @@
       <c r="E29" s="2">
         <v>43909</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G29" s="1">
         <v>-37.720556999999999</v>
       </c>
-      <c r="G29" s="1">
+      <c r="H29" s="1">
         <v>145.04823200000001</v>
-      </c>
-      <c r="H29" s="2">
-        <v>43893</v>
       </c>
       <c r="I29" s="2">
         <v>43893</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29" s="2">
+        <v>43893</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>67</v>
       </c>
@@ -1884,20 +2064,23 @@
       <c r="E30" s="2">
         <v>43909</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G30" s="1">
         <v>-37.720556999999999</v>
       </c>
-      <c r="G30" s="1">
+      <c r="H30" s="1">
         <v>145.04823200000001</v>
       </c>
-      <c r="H30" s="2">
+      <c r="I30" s="2">
         <v>43894</v>
       </c>
-      <c r="I30" s="2">
+      <c r="J30" s="2">
         <v>43893</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>67</v>
       </c>
@@ -1913,20 +2096,23 @@
       <c r="E31" s="2">
         <v>43909</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G31" s="1">
         <v>-37.720556999999999</v>
       </c>
-      <c r="G31" s="1">
+      <c r="H31" s="1">
         <v>145.04823200000001</v>
       </c>
-      <c r="H31" s="2">
+      <c r="I31" s="2">
         <v>43895</v>
       </c>
-      <c r="I31" s="2">
+      <c r="J31" s="2">
         <v>43893</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>71</v>
       </c>
@@ -1942,20 +2128,23 @@
       <c r="E32" s="2">
         <v>43906</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G32" s="1">
         <v>-37.667110999999998</v>
       </c>
-      <c r="G32" s="1">
+      <c r="H32" s="1">
         <v>144.83348079999999</v>
-      </c>
-      <c r="H32" s="2">
-        <v>43892</v>
       </c>
       <c r="I32" s="2">
         <v>43892</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32" s="2">
+        <v>43892</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>71</v>
       </c>
@@ -1971,20 +2160,23 @@
       <c r="E33" s="2">
         <v>43906</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G33" s="1">
         <v>-38.145009600000002</v>
       </c>
-      <c r="G33" s="1">
+      <c r="H33" s="1">
         <v>144.35683760000001</v>
-      </c>
-      <c r="H33" s="2">
-        <v>43892</v>
       </c>
       <c r="I33" s="2">
         <v>43892</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33" s="2">
+        <v>43892</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>71</v>
       </c>
@@ -2000,20 +2192,23 @@
       <c r="E34" s="2">
         <v>43906</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G34" s="1">
         <v>-37.816394899999999</v>
       </c>
-      <c r="G34" s="1">
+      <c r="H34" s="1">
         <v>144.9526066</v>
-      </c>
-      <c r="H34" s="2">
-        <v>43892</v>
       </c>
       <c r="I34" s="2">
         <v>43892</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34" s="2">
+        <v>43892</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>71</v>
       </c>
@@ -2029,20 +2224,23 @@
       <c r="E35" s="2">
         <v>43906</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G35" s="1">
         <v>-37.816394899999999</v>
       </c>
-      <c r="G35" s="1">
+      <c r="H35" s="1">
         <v>144.9526066</v>
-      </c>
-      <c r="H35" s="2">
-        <v>43892</v>
       </c>
       <c r="I35" s="2">
         <v>43892</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35" s="2">
+        <v>43892</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>71</v>
       </c>
@@ -2058,20 +2256,23 @@
       <c r="E36" s="2">
         <v>43906</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G36" s="1">
         <v>-37.826660799999999</v>
       </c>
-      <c r="G36" s="1">
+      <c r="H36" s="1">
         <v>145.0587903</v>
-      </c>
-      <c r="H36" s="2">
-        <v>43892</v>
       </c>
       <c r="I36" s="2">
         <v>43892</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36" s="2">
+        <v>43892</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>78</v>
       </c>
@@ -2087,20 +2288,23 @@
       <c r="E37" s="2">
         <v>43910</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G37" s="1">
         <v>-37.848232000000003</v>
       </c>
-      <c r="G37" s="1">
+      <c r="H37" s="1">
         <v>145.00550799999999</v>
-      </c>
-      <c r="H37" s="2">
-        <v>43892</v>
       </c>
       <c r="I37" s="2">
         <v>43892</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37" s="2">
+        <v>43892</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>78</v>
       </c>
@@ -2116,20 +2320,23 @@
       <c r="E38" s="2">
         <v>43910</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G38" s="1">
         <v>-37.848232000000003</v>
       </c>
-      <c r="G38" s="1">
+      <c r="H38" s="1">
         <v>145.00550799999999</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43893</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43892</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>78</v>
       </c>
@@ -2145,20 +2352,23 @@
       <c r="E39" s="2">
         <v>43910</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F39" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G39" s="1">
         <v>-37.848232000000003</v>
       </c>
-      <c r="G39" s="1">
+      <c r="H39" s="1">
         <v>145.00550799999999</v>
       </c>
-      <c r="H39" s="2">
+      <c r="I39" s="2">
         <v>43894</v>
       </c>
-      <c r="I39" s="2">
+      <c r="J39" s="2">
         <v>43892</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>78</v>
       </c>
@@ -2174,20 +2384,23 @@
       <c r="E40" s="2">
         <v>43910</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F40" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G40" s="1">
         <v>-37.848232000000003</v>
       </c>
-      <c r="G40" s="1">
+      <c r="H40" s="1">
         <v>145.00550799999999</v>
       </c>
-      <c r="H40" s="2">
+      <c r="I40" s="2">
         <v>43895</v>
       </c>
-      <c r="I40" s="2">
+      <c r="J40" s="2">
         <v>43892</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>78</v>
       </c>
@@ -2203,20 +2416,23 @@
       <c r="E41" s="2">
         <v>43910</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G41" s="1">
         <v>-37.848232000000003</v>
       </c>
-      <c r="G41" s="1">
+      <c r="H41" s="1">
         <v>145.00550799999999</v>
       </c>
-      <c r="H41" s="2">
+      <c r="I41" s="2">
         <v>43896</v>
       </c>
-      <c r="I41" s="2">
+      <c r="J41" s="2">
         <v>43892</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>82</v>
       </c>
@@ -2232,20 +2448,23 @@
       <c r="E42" s="2">
         <v>43904</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G42" s="1">
         <v>-37.667110999999998</v>
       </c>
-      <c r="G42" s="1">
+      <c r="H42" s="1">
         <v>144.83348079999999</v>
-      </c>
-      <c r="H42" s="2">
-        <v>43890</v>
       </c>
       <c r="I42" s="2">
         <v>43890</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42" s="2">
+        <v>43890</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>82</v>
       </c>
@@ -2261,20 +2480,23 @@
       <c r="E43" s="2">
         <v>43904</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F43" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G43" s="1">
         <v>-37.667110999999998</v>
       </c>
-      <c r="G43" s="1">
+      <c r="H43" s="1">
         <v>144.83348079999999</v>
-      </c>
-      <c r="H43" s="2">
-        <v>43890</v>
       </c>
       <c r="I43" s="2">
         <v>43890</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J43" s="2">
+        <v>43890</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>88</v>
       </c>
@@ -2290,16 +2512,19 @@
       <c r="E44" s="2">
         <v>43903</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F44" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G44" s="1">
         <v>-37.667110999999998</v>
       </c>
-      <c r="G44" s="1">
+      <c r="H44" s="1">
         <v>144.83348079999999</v>
       </c>
-      <c r="H44" s="2">
+      <c r="I44" s="2">
         <v>43889</v>
       </c>
-      <c r="I44" s="2">
+      <c r="J44" s="2">
         <v>43889</v>
       </c>
     </row>
